--- a/data/台风登陆期间数据信息.xlsx
+++ b/data/台风登陆期间数据信息.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="8010"/>
+    <workbookView windowWidth="16350" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="norm_data" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>时间</t>
   </si>
@@ -53,37 +54,26 @@
   <si>
     <t>最大回波</t>
   </si>
+  <si>
+    <t>上升w avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,14 +86,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,19 +152,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,31 +191,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,6 +206,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -202,23 +221,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +245,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,25 +263,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,31 +275,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,31 +305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,13 +329,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +359,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,25 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,8 +442,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,21 +526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -515,167 +536,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,6 +753,4551 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.733699092635577"/>
+          <c:y val="0.0108656283955089"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>12.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55.71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54.91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>25.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$2:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>9.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$2:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>31.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.06</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$M$2:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>50.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="484457245"/>
+        <c:axId val="707879668"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="484457245"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="707879668"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="707879668"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484457245"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.443611111111111"/>
+          <c:y val="0.0381944444444444"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="768461759"/>
+        <c:axId val="773373792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="768461759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="773373792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="773373792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768461759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>norm_data!$B$2:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.820691508062892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.810967461624663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82356216863018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.788440050216096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.811239019613817</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.780174987571244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79992148917634</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.773520730800862</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.764098242918551</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.796377468529529</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.774284471378089</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.815692169470842</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.794954947244996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79138686223224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.795640694667481</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.79956801992747</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7995506507357</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.805720749553295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.791056932672212</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76022201132152</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.746807926724839</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.743678006517582</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.754585393697257</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.756764999644091</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.731006547927278</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.720732272463528</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.726650451755869</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.729520674759581</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.746714351426711</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.737497861907407</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.724494012754911</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.729708537860676</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.735747272269197</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.710137153212149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.716450268746322</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.729638312622476</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.719389017699901</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.724596987444138</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.72625370605891</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.721458528137269</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.705141214667424</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.71945404587093</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.685662198034941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>norm_data!$C$2:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>12.37790807947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.027967649772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.1988696892386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.0618906947349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.4981102793384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0549135567686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.4935609901336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.7606080729404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.83689613853892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.81802844011253</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.7357974862998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.90940013112228</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.7426490750884</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.7149151604153</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.6823848795814</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.3945870097364</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.0278686522842</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.77137808377269</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.0374670161002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.73601173809407</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.0823115038779</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.4571559963678</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.2809598776227</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.9179450113875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.76419585200134</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.0167767391822</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.10647304186936</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.82763147655901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.2908310904605</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.3961469548127</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.4578097462235</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.6365363318796</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.05969046053857</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.34486404033807</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.5824182650616</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.7489007199253</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.4551072650857</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.50197925559837</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.779608964283</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.265330366197</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.8559839077664</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.044076959552</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.993978866297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>norm_data!$D$2:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>62.7039711301052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.8209680748348</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.0730523314189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.7804254606869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.7268712117402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.4243637179142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.488893794667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.6876409236231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.3193787649986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.4030401851503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.5324658880819</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.845811146293</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.4699904374546</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.1707493253087</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63.50431840981</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75.7266624020632</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75.282178108337</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.3563760381577</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.4168333778051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59.6971832048766</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55.9660490385874</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62.7533576132339</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73.2519464775443</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74.3228603426832</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.379300534434</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55.00736217202</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>57.0119755495056</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57.3364048943948</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.2023304146524</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61.6359976130311</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>65.0779360076889</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56.1611704394888</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52.6160880956264</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57.6239351715701</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54.3683826123166</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>64.4715861188404</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>55.5889441740716</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55.7186389475508</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>85.6200776751495</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54.9065029714906</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59.9795890982834</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>55.0717625521525</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>55.6325964380515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>norm_data!$E$2:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>25.6821651319237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.4403501181161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.3360565597379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.1108131182938</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.8924916658717</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.732017155795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.5481699587265</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.2266965800056</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.9196752584039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.8819180929093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.8452571245432</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.7749090451007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.5757520057895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.5214299120746</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.4098563680644</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.2575977593492</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.9402719469238</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.8096508608361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.7487373151952</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.5840872824995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.308117603158</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.1631662236997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0114718290213</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.8842829196213</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.5422355333267</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.3703717177501</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.2805389125906</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.1056150624299</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.8576986408069</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.6561951640592</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.4420346242331</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.3020750568731</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.9973085595611</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.8086994808787</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.6701301042883</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.5451691494287</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.3175945131515</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.1949561009359</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.0399936006966</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18.9003612212793</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18.7515867911886</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18.5466323181015</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18.5212671698595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>norm_data!$F$2:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>9.48959715159868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.661822807051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.5559431884849</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.161432265204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.1147369361329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.3582196859098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.1657095883873</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.13586906381676</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5545699332514</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.45152243886952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.4005104820066</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.2359926891965</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.9340595959201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.174419907536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.4589988904121</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.67940711485167</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.3816585077255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.1075220045216</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.1508594293364</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.71101002999379</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.84295720233877</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.54896040047488</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.369426583927</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.98085691249338</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.74672320700205</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.56145573656838</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.4728074764508</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.72567592597971</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.53087155070801</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.4697307155381</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.23142049550482</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.09058845670803</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.12603930080319</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.32453453736053</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.49830944303257</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.52629712932041</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.67521320759637</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.01390681172734</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.24231071752236</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.94575482593074</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.50630104487844</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.89584761228771</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.79054422725926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>norm_data!$G$2:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.586468283090251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.579217086498941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.553310818188102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.541396357934917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.586668434541675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.571537291115662</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.675500317932992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.604491410884941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.609757164619297</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57150921273554</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.642535580881797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.638279665645422</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.613415269099277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.657245971254172</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.654116461982531</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.639537229502021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.661585666757421</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.646248639977992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.665483209443634</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.584543133746336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.583684932347529</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.591038476363344</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.580219598999323</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.575604749141233</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.556079074454098</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.527335299335843</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.549372970894189</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.534337220816061</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.576914096621975</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.56800190939785</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.591504010677496</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.562675734495456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.594382570370655</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.587357951207516</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.569739379934805</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.596159362897487</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.573818290992337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.592265559707766</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.599637013893754</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.596334173488775</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.577117540729381</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.563246046888507</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.535573084417575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>norm_data!$H$2:$H$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>31.8211480095904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.9205932702345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.8627833847135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.7834484555629</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.6952856093051</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.8648615820002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.6242593278083</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.5122814429227</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.6101846250743</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.7558927712166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.8857327970496</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.7553367897851</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.6789742134113</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.705527909908</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.6737794084471</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.5522828810654</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31.4341175216403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.3195684077409</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31.3254307691323</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.3037177196552</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.3518527375035</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.4675132583931</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.6807857571189</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.6580022034206</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.5526386720778</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31.7204031334512</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32.0913917971614</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.308590056351</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.4290505897646</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.5784276142511</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.7724862985255</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.8588162922078</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.8581388415859</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32.7527667828761</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32.6051711229933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32.7032106012767</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32.7639811952847</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.7646219088716</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.8668299712085</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33.004868370566</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.1605388750974</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.5983898413678</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33.8885706764972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>norm_data!$I$2:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>50.327880859375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.2539901733398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.5074882507324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.4307861328125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.6097183227539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.5426902770996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.0060386657715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.9889183044434</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.4823913574219</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.273624420166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.6725883483887</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.1857566833496</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.8359794616699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.668586730957</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.3243789672852</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.7714958190918</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.2299766540527</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.6429061889648</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52.6148643493652</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51.7543449401855</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53.0830154418945</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.5585975646973</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53.3433532714844</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>52.282413482666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51.7402000427246</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51.0024108886719</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50.7517700195313</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50.8281555175781</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>52.7273445129395</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50.8158187866211</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52.5806427001953</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51.7041091918945</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>51.4652938842773</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>52.1049003601074</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.7553558349609</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52.0489501953125</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>52.4260063171387</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52.9977226257324</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51.9571876525879</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52.1850509643555</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52.4082412719727</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53.4230003356934</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>54.1791496276855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="913622304"/>
+        <c:axId val="414901939"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="913622304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414901939"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="414901939"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="913622304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>423545</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5357495" y="1399540"/>
+        <a:ext cx="8704580" cy="4733925"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>324485</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="635" y="4213225"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6235700" y="222250"/>
+        <a:ext cx="6943725" cy="4676140"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1028,8 +5589,8 @@
   <sheetPr/>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1474,33 +6035,3092 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.375"/>
+    <col min="5" max="5" width="10.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2">
+        <v>150400</v>
+      </c>
+      <c r="B2" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2">
+        <v>120.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>122.4</v>
+      </c>
+      <c r="F2">
+        <v>0.82</v>
+      </c>
+      <c r="G2">
+        <v>12.37</v>
+      </c>
+      <c r="H2">
+        <v>62.7</v>
+      </c>
+      <c r="I2">
+        <v>25.68</v>
+      </c>
+      <c r="J2">
+        <v>9.48</v>
+      </c>
+      <c r="K2">
+        <v>0.58</v>
+      </c>
+      <c r="L2">
+        <v>31.82</v>
+      </c>
+      <c r="M2">
+        <v>50.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>152100</v>
+      </c>
+      <c r="B3">
+        <f>B2+0.03125</f>
+        <v>27.33125</v>
+      </c>
+      <c r="C3">
+        <f>C2+0.025</f>
+        <v>29.025</v>
+      </c>
+      <c r="D3">
+        <f>D2-0.05</f>
+        <v>120.45</v>
+      </c>
+      <c r="E3">
+        <f>E2-0.04375</f>
+        <v>122.35625</v>
+      </c>
+      <c r="F3">
+        <v>0.78</v>
+      </c>
+      <c r="G3">
+        <v>9.93</v>
+      </c>
+      <c r="H3">
+        <v>62.62</v>
+      </c>
+      <c r="I3">
+        <v>25.12</v>
+      </c>
+      <c r="J3">
+        <v>13.16</v>
+      </c>
+      <c r="K3">
+        <v>0.53</v>
+      </c>
+      <c r="L3">
+        <v>31.86</v>
+      </c>
+      <c r="M3">
+        <v>51.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2">
+        <v>153300</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:B17" si="0">B3+0.03125</f>
+        <v>27.3625</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C17" si="1">C3+0.025</f>
+        <v>29.05</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D17" si="2">D3-0.05</f>
+        <v>120.4</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E17" si="3">E3-0.04375</f>
+        <v>122.3125</v>
+      </c>
+      <c r="F4">
+        <v>0.78</v>
+      </c>
+      <c r="G4">
+        <v>16.05</v>
+      </c>
+      <c r="H4">
+        <v>80.42</v>
+      </c>
+      <c r="I4">
+        <v>24.73</v>
+      </c>
+      <c r="J4">
+        <v>12.35</v>
+      </c>
+      <c r="K4">
+        <v>0.57</v>
+      </c>
+      <c r="L4">
+        <v>31.86</v>
+      </c>
+      <c r="M4">
+        <v>50.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>154900</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>27.39375</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>29.075</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>120.35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>122.26875</v>
+      </c>
+      <c r="F5">
+        <v>0.76</v>
+      </c>
+      <c r="G5">
+        <v>8.83</v>
+      </c>
+      <c r="H5">
+        <v>50.32</v>
+      </c>
+      <c r="I5">
+        <v>23.96</v>
+      </c>
+      <c r="J5">
+        <v>7.55</v>
+      </c>
+      <c r="K5">
+        <v>0.61</v>
+      </c>
+      <c r="L5">
+        <v>31.65</v>
+      </c>
+      <c r="M5">
+        <v>49.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2">
+        <v>160100</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>27.425</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>29.1</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>120.3</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="3"/>
+        <v>122.225</v>
+      </c>
+      <c r="F6">
+        <v>0.77</v>
+      </c>
+      <c r="G6">
+        <v>11.73</v>
+      </c>
+      <c r="H6">
+        <v>62.53</v>
+      </c>
+      <c r="I6">
+        <v>23.84</v>
+      </c>
+      <c r="J6">
+        <v>14.4</v>
+      </c>
+      <c r="K6">
+        <v>0.64</v>
+      </c>
+      <c r="L6">
+        <v>31.88</v>
+      </c>
+      <c r="M6">
+        <v>50.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>161800</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>27.45625</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>29.125</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>120.25</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>122.18125</v>
+      </c>
+      <c r="F7">
+        <v>0.79</v>
+      </c>
+      <c r="G7">
+        <v>10.71</v>
+      </c>
+      <c r="H7">
+        <v>67.17</v>
+      </c>
+      <c r="I7">
+        <v>23.43</v>
+      </c>
+      <c r="J7">
+        <v>13.17</v>
+      </c>
+      <c r="K7">
+        <v>0.65</v>
+      </c>
+      <c r="L7">
+        <v>31.73</v>
+      </c>
+      <c r="M7">
+        <v>50.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2">
+        <v>163500</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>27.4875</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>29.15</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>120.2</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="3"/>
+        <v>122.1375</v>
+      </c>
+      <c r="F8">
+        <v>0.8</v>
+      </c>
+      <c r="G8">
+        <v>15.02</v>
+      </c>
+      <c r="H8">
+        <v>75.28</v>
+      </c>
+      <c r="I8">
+        <v>23.01</v>
+      </c>
+      <c r="J8">
+        <v>15.38</v>
+      </c>
+      <c r="K8">
+        <v>0.66</v>
+      </c>
+      <c r="L8">
+        <v>31.42</v>
+      </c>
+      <c r="M8">
+        <v>50.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>164600</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>27.51875</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>29.175</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>120.15</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>122.09375</v>
+      </c>
+      <c r="F9">
+        <v>0.79</v>
+      </c>
+      <c r="G9">
+        <v>12.03</v>
+      </c>
+      <c r="H9">
+        <v>57.41</v>
+      </c>
+      <c r="I9">
+        <v>22.76</v>
+      </c>
+      <c r="J9">
+        <v>13.15</v>
+      </c>
+      <c r="K9">
+        <v>0.66</v>
+      </c>
+      <c r="L9">
+        <v>31.29</v>
+      </c>
+      <c r="M9">
+        <v>52.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2">
+        <v>170300</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>27.55</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>29.2</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>120.1</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="3"/>
+        <v>122.05</v>
+      </c>
+      <c r="F10">
+        <v>0.74</v>
+      </c>
+      <c r="G10">
+        <v>11.45</v>
+      </c>
+      <c r="H10">
+        <v>62.75</v>
+      </c>
+      <c r="I10">
+        <v>22.05</v>
+      </c>
+      <c r="J10">
+        <v>7.54</v>
+      </c>
+      <c r="K10">
+        <v>0.59</v>
+      </c>
+      <c r="L10">
+        <v>31.47</v>
+      </c>
+      <c r="M10">
+        <v>53.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>171400</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>27.58125</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>29.225</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>120.05</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>122.00625</v>
+      </c>
+      <c r="F11">
+        <v>0.74</v>
+      </c>
+      <c r="G11">
+        <v>12.91</v>
+      </c>
+      <c r="H11">
+        <v>74.32</v>
+      </c>
+      <c r="I11">
+        <v>21.81</v>
+      </c>
+      <c r="J11">
+        <v>7.98</v>
+      </c>
+      <c r="K11">
+        <v>0.57</v>
+      </c>
+      <c r="L11">
+        <v>31.74</v>
+      </c>
+      <c r="M11">
+        <v>52.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2">
+        <v>173100</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>27.6125</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>29.25</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="3"/>
+        <v>121.9625</v>
+      </c>
+      <c r="F12">
+        <v>0.72</v>
+      </c>
+      <c r="G12">
+        <v>9.1</v>
+      </c>
+      <c r="H12">
+        <v>57.01</v>
+      </c>
+      <c r="I12">
+        <v>21.21</v>
+      </c>
+      <c r="J12">
+        <v>6.47</v>
+      </c>
+      <c r="K12">
+        <v>0.54</v>
+      </c>
+      <c r="L12">
+        <v>32.17</v>
+      </c>
+      <c r="M12">
+        <v>50.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>174800</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>27.64375</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>29.275</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>119.95</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>121.91875</v>
+      </c>
+      <c r="F13">
+        <v>0.73</v>
+      </c>
+      <c r="G13">
+        <v>11.39</v>
+      </c>
+      <c r="H13">
+        <v>61.63</v>
+      </c>
+      <c r="I13">
+        <v>20.74</v>
+      </c>
+      <c r="J13">
+        <v>10.46</v>
+      </c>
+      <c r="K13">
+        <v>0.56</v>
+      </c>
+      <c r="L13">
+        <v>32.74</v>
+      </c>
+      <c r="M13">
+        <v>50.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2">
+        <v>180500</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>27.675</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>29.3</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>119.9</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>121.875</v>
+      </c>
+      <c r="F14">
+        <v>0.73</v>
+      </c>
+      <c r="G14">
+        <v>9.05</v>
+      </c>
+      <c r="H14">
+        <v>52.61</v>
+      </c>
+      <c r="I14">
+        <v>20.06</v>
+      </c>
+      <c r="J14">
+        <v>6.39</v>
+      </c>
+      <c r="K14">
+        <v>0.57</v>
+      </c>
+      <c r="L14">
+        <v>32.77</v>
+      </c>
+      <c r="M14">
+        <v>51.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>181600</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>27.70625</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>29.325</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>119.85</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>121.83125</v>
+      </c>
+      <c r="F15">
+        <v>0.71</v>
+      </c>
+      <c r="G15">
+        <v>7.58</v>
+      </c>
+      <c r="H15">
+        <v>54.36</v>
+      </c>
+      <c r="I15">
+        <v>19.76</v>
+      </c>
+      <c r="J15">
+        <v>8.49</v>
+      </c>
+      <c r="K15">
+        <v>0.57</v>
+      </c>
+      <c r="L15">
+        <v>32.55</v>
+      </c>
+      <c r="M15">
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2">
+        <v>183300</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>27.7375</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>29.35</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>119.8</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="3"/>
+        <v>121.7875</v>
+      </c>
+      <c r="F16">
+        <v>0.71</v>
+      </c>
+      <c r="G16">
+        <v>8.5</v>
+      </c>
+      <c r="H16">
+        <v>55.71</v>
+      </c>
+      <c r="I16">
+        <v>19.26</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>0.58</v>
+      </c>
+      <c r="L16">
+        <v>32.62</v>
+      </c>
+      <c r="M16">
+        <v>52.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>184400</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>27.76875</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>29.375</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>119.75</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>121.74375</v>
+      </c>
+      <c r="F17">
+        <v>0.71</v>
+      </c>
+      <c r="G17">
+        <v>10.26</v>
+      </c>
+      <c r="H17">
+        <v>54.91</v>
+      </c>
+      <c r="I17">
+        <v>19</v>
+      </c>
+      <c r="J17">
+        <v>9.94</v>
+      </c>
+      <c r="K17">
+        <v>0.59</v>
+      </c>
+      <c r="L17">
+        <v>33.06</v>
+      </c>
+      <c r="M17">
+        <v>52.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2">
+        <v>190100</v>
+      </c>
+      <c r="B18" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>119.7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>121.7</v>
+      </c>
+      <c r="F18">
+        <v>0.68</v>
+      </c>
+      <c r="G18">
+        <v>12.99</v>
+      </c>
+      <c r="H18">
+        <v>55.63</v>
+      </c>
+      <c r="I18">
+        <v>18.52</v>
+      </c>
+      <c r="J18">
+        <v>5.79</v>
+      </c>
+      <c r="K18">
+        <v>0.53</v>
+      </c>
+      <c r="L18">
+        <v>33.88</v>
+      </c>
+      <c r="M18">
+        <v>54.18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="1">
+        <v>0.820691508062892</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12.37790807947</v>
+      </c>
+      <c r="D2" s="1">
+        <v>62.7039711301052</v>
+      </c>
+      <c r="E2" s="1">
+        <v>25.6821651319237</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9.48959715159868</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.586468283090251</v>
+      </c>
+      <c r="H2" s="1">
+        <v>31.8211480095904</v>
+      </c>
+      <c r="I2" s="1">
+        <v>50.327880859375</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1">
+        <v>0.810967461624663</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13.027967649772</v>
+      </c>
+      <c r="D3" s="1">
+        <v>62.8209680748348</v>
+      </c>
+      <c r="E3" s="1">
+        <v>25.4403501181161</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12.661822807051</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.579217086498941</v>
+      </c>
+      <c r="H3" s="1">
+        <v>31.9205932702345</v>
+      </c>
+      <c r="I3" s="1">
+        <v>50.2539901733398</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="1">
+        <v>0.82356216863018</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13.1988696892386</v>
+      </c>
+      <c r="D4" s="1">
+        <v>67.0730523314189</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25.3360565597379</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11.5559431884849</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.553310818188102</v>
+      </c>
+      <c r="H4" s="1">
+        <v>31.8627833847135</v>
+      </c>
+      <c r="I4" s="1">
+        <v>50.5074882507324</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="1">
+        <v>0.788440050216096</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13.0618906947349</v>
+      </c>
+      <c r="D5" s="1">
+        <v>62.7804254606869</v>
+      </c>
+      <c r="E5" s="1">
+        <v>25.1108131182938</v>
+      </c>
+      <c r="F5" s="1">
+        <v>13.161432265204</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.541396357934917</v>
+      </c>
+      <c r="H5" s="1">
+        <v>31.7834484555629</v>
+      </c>
+      <c r="I5" s="1">
+        <v>51.4307861328125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="1">
+        <v>0.811239019613817</v>
+      </c>
+      <c r="C6" s="1">
+        <v>18.4981102793384</v>
+      </c>
+      <c r="D6" s="1">
+        <v>61.7268712117402</v>
+      </c>
+      <c r="E6" s="1">
+        <v>24.8924916658717</v>
+      </c>
+      <c r="F6" s="1">
+        <v>17.1147369361329</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.586668434541675</v>
+      </c>
+      <c r="H6" s="1">
+        <v>31.6952856093051</v>
+      </c>
+      <c r="I6" s="1">
+        <v>49.6097183227539</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="1">
+        <v>0.780174987571244</v>
+      </c>
+      <c r="C7" s="1">
+        <v>16.0549135567686</v>
+      </c>
+      <c r="D7" s="1">
+        <v>80.4243637179142</v>
+      </c>
+      <c r="E7" s="1">
+        <v>24.732017155795</v>
+      </c>
+      <c r="F7" s="1">
+        <v>12.3582196859098</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.571537291115662</v>
+      </c>
+      <c r="H7" s="1">
+        <v>31.8648615820002</v>
+      </c>
+      <c r="I7" s="1">
+        <v>50.5426902770996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="1">
+        <v>0.79992148917634</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14.4935609901336</v>
+      </c>
+      <c r="D8" s="1">
+        <v>67.488893794667</v>
+      </c>
+      <c r="E8" s="1">
+        <v>24.5481699587265</v>
+      </c>
+      <c r="F8" s="1">
+        <v>11.1657095883873</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.675500317932992</v>
+      </c>
+      <c r="H8" s="1">
+        <v>31.6242593278083</v>
+      </c>
+      <c r="I8" s="1">
+        <v>51.0060386657715</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="1">
+        <v>0.773520730800862</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10.7606080729404</v>
+      </c>
+      <c r="D9" s="1">
+        <v>47.6876409236231</v>
+      </c>
+      <c r="E9" s="1">
+        <v>24.2266965800056</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7.13586906381676</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.604491410884941</v>
+      </c>
+      <c r="H9" s="1">
+        <v>31.5122814429227</v>
+      </c>
+      <c r="I9" s="1">
+        <v>48.9889183044434</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="1">
+        <v>0.764098242918551</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8.83689613853892</v>
+      </c>
+      <c r="D10" s="1">
+        <v>50.3193787649986</v>
+      </c>
+      <c r="E10" s="1">
+        <v>23.9196752584039</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7.5545699332514</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.609757164619297</v>
+      </c>
+      <c r="H10" s="1">
+        <v>31.6101846250743</v>
+      </c>
+      <c r="I10" s="1">
+        <v>49.4823913574219</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="1">
+        <v>0.796377468529529</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8.81802844011253</v>
+      </c>
+      <c r="D11" s="1">
+        <v>48.4030401851503</v>
+      </c>
+      <c r="E11" s="1">
+        <v>23.8819180929093</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7.45152243886952</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.57150921273554</v>
+      </c>
+      <c r="H11" s="1">
+        <v>31.7558927712166</v>
+      </c>
+      <c r="I11" s="1">
+        <v>49.273624420166</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="1">
+        <v>0.774284471378089</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11.7357974862998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>62.5324658880819</v>
+      </c>
+      <c r="E12" s="1">
+        <v>23.8452571245432</v>
+      </c>
+      <c r="F12" s="1">
+        <v>14.4005104820066</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.642535580881797</v>
+      </c>
+      <c r="H12" s="1">
+        <v>31.8857327970496</v>
+      </c>
+      <c r="I12" s="1">
+        <v>50.6725883483887</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="1">
+        <v>0.815692169470842</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9.90940013112228</v>
+      </c>
+      <c r="D13" s="1">
+        <v>53.845811146293</v>
+      </c>
+      <c r="E13" s="1">
+        <v>23.7749090451007</v>
+      </c>
+      <c r="F13" s="1">
+        <v>15.2359926891965</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.638279665645422</v>
+      </c>
+      <c r="H13" s="1">
+        <v>31.7553367897851</v>
+      </c>
+      <c r="I13" s="1">
+        <v>51.1857566833496</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="1">
+        <v>0.794954947244996</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12.7426490750884</v>
+      </c>
+      <c r="D14" s="1">
+        <v>63.4699904374546</v>
+      </c>
+      <c r="E14" s="1">
+        <v>23.5757520057895</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13.9340595959201</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.613415269099277</v>
+      </c>
+      <c r="H14" s="1">
+        <v>31.6789742134113</v>
+      </c>
+      <c r="I14" s="1">
+        <v>49.8359794616699</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="1">
+        <v>0.79138686223224</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10.7149151604153</v>
+      </c>
+      <c r="D15" s="1">
+        <v>67.1707493253087</v>
+      </c>
+      <c r="E15" s="1">
+        <v>23.5214299120746</v>
+      </c>
+      <c r="F15" s="1">
+        <v>13.174419907536</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.657245971254172</v>
+      </c>
+      <c r="H15" s="1">
+        <v>31.705527909908</v>
+      </c>
+      <c r="I15" s="1">
+        <v>50.668586730957</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="1">
+        <v>0.795640694667481</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10.6823848795814</v>
+      </c>
+      <c r="D16" s="1">
+        <v>63.50431840981</v>
+      </c>
+      <c r="E16" s="1">
+        <v>23.4098563680644</v>
+      </c>
+      <c r="F16" s="1">
+        <v>13.4589988904121</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.654116461982531</v>
+      </c>
+      <c r="H16" s="1">
+        <v>31.6737794084471</v>
+      </c>
+      <c r="I16" s="1">
+        <v>51.3243789672852</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="1">
+        <v>0.79956801992747</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14.3945870097364</v>
+      </c>
+      <c r="D17" s="1">
+        <v>75.7266624020632</v>
+      </c>
+      <c r="E17" s="1">
+        <v>23.2575977593492</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8.67940711485167</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.639537229502021</v>
+      </c>
+      <c r="H17" s="1">
+        <v>31.5522828810654</v>
+      </c>
+      <c r="I17" s="1">
+        <v>50.7714958190918</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="1">
+        <v>0.7995506507357</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15.0278686522842</v>
+      </c>
+      <c r="D18" s="1">
+        <v>75.282178108337</v>
+      </c>
+      <c r="E18" s="1">
+        <v>22.9402719469238</v>
+      </c>
+      <c r="F18" s="1">
+        <v>15.3816585077255</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.661585666757421</v>
+      </c>
+      <c r="H18" s="1">
+        <v>31.4341175216403</v>
+      </c>
+      <c r="I18" s="1">
+        <v>50.2299766540527</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="1">
+        <v>0.805720749553295</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8.77137808377269</v>
+      </c>
+      <c r="D19" s="1">
+        <v>53.3563760381577</v>
+      </c>
+      <c r="E19" s="1">
+        <v>22.8096508608361</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10.1075220045216</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.646248639977992</v>
+      </c>
+      <c r="H19" s="1">
+        <v>31.3195684077409</v>
+      </c>
+      <c r="I19" s="1">
+        <v>50.6429061889648</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="1">
+        <v>0.791056932672212</v>
+      </c>
+      <c r="C20" s="1">
+        <v>12.0374670161002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>57.4168333778051</v>
+      </c>
+      <c r="E20" s="1">
+        <v>22.7487373151952</v>
+      </c>
+      <c r="F20" s="1">
+        <v>13.1508594293364</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.665483209443634</v>
+      </c>
+      <c r="H20" s="1">
+        <v>31.3254307691323</v>
+      </c>
+      <c r="I20" s="1">
+        <v>52.6148643493652</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="1">
+        <v>0.76022201132152</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8.73601173809407</v>
+      </c>
+      <c r="D21" s="1">
+        <v>59.6971832048766</v>
+      </c>
+      <c r="E21" s="1">
+        <v>22.5840872824995</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7.71101002999379</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.584543133746336</v>
+      </c>
+      <c r="H21" s="1">
+        <v>31.3037177196552</v>
+      </c>
+      <c r="I21" s="1">
+        <v>51.7543449401855</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="1">
+        <v>0.746807926724839</v>
+      </c>
+      <c r="C22" s="1">
+        <v>16.0823115038779</v>
+      </c>
+      <c r="D22" s="1">
+        <v>55.9660490385874</v>
+      </c>
+      <c r="E22" s="1">
+        <v>22.308117603158</v>
+      </c>
+      <c r="F22" s="1">
+        <v>8.84295720233877</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.583684932347529</v>
+      </c>
+      <c r="H22" s="1">
+        <v>31.3518527375035</v>
+      </c>
+      <c r="I22" s="1">
+        <v>53.0830154418945</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="1">
+        <v>0.743678006517582</v>
+      </c>
+      <c r="C23" s="1">
+        <v>11.4571559963678</v>
+      </c>
+      <c r="D23" s="1">
+        <v>62.7533576132339</v>
+      </c>
+      <c r="E23" s="1">
+        <v>22.1631662236997</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7.54896040047488</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.591038476363344</v>
+      </c>
+      <c r="H23" s="1">
+        <v>31.4675132583931</v>
+      </c>
+      <c r="I23" s="1">
+        <v>53.5585975646973</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="1">
+        <v>0.754585393697257</v>
+      </c>
+      <c r="C24" s="1">
+        <v>16.2809598776227</v>
+      </c>
+      <c r="D24" s="1">
+        <v>73.2519464775443</v>
+      </c>
+      <c r="E24" s="1">
+        <v>22.0114718290213</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10.369426583927</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.580219598999323</v>
+      </c>
+      <c r="H24" s="1">
+        <v>31.6807857571189</v>
+      </c>
+      <c r="I24" s="1">
+        <v>53.3433532714844</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="1">
+        <v>0.756764999644091</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12.9179450113875</v>
+      </c>
+      <c r="D25" s="1">
+        <v>74.3228603426832</v>
+      </c>
+      <c r="E25" s="1">
+        <v>21.8842829196213</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7.98085691249338</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.575604749141233</v>
+      </c>
+      <c r="H25" s="1">
+        <v>31.6580022034206</v>
+      </c>
+      <c r="I25" s="1">
+        <v>52.282413482666</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="1">
+        <v>0.731006547927278</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8.76419585200134</v>
+      </c>
+      <c r="D26" s="1">
+        <v>52.379300534434</v>
+      </c>
+      <c r="E26" s="1">
+        <v>21.5422355333267</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5.74672320700205</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.556079074454098</v>
+      </c>
+      <c r="H26" s="1">
+        <v>31.5526386720778</v>
+      </c>
+      <c r="I26" s="1">
+        <v>51.7402000427246</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="1">
+        <v>0.720732272463528</v>
+      </c>
+      <c r="C27" s="1">
+        <v>11.0167767391822</v>
+      </c>
+      <c r="D27" s="1">
+        <v>55.00736217202</v>
+      </c>
+      <c r="E27" s="1">
+        <v>21.3703717177501</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5.56145573656838</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.527335299335843</v>
+      </c>
+      <c r="H27" s="1">
+        <v>31.7204031334512</v>
+      </c>
+      <c r="I27" s="1">
+        <v>51.0024108886719</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="1">
+        <v>0.726650451755869</v>
+      </c>
+      <c r="C28" s="1">
+        <v>9.10647304186936</v>
+      </c>
+      <c r="D28" s="1">
+        <v>57.0119755495056</v>
+      </c>
+      <c r="E28" s="1">
+        <v>21.2805389125906</v>
+      </c>
+      <c r="F28" s="1">
+        <v>6.4728074764508</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.549372970894189</v>
+      </c>
+      <c r="H28" s="1">
+        <v>32.0913917971614</v>
+      </c>
+      <c r="I28" s="1">
+        <v>50.7517700195313</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="1">
+        <v>0.729520674759581</v>
+      </c>
+      <c r="C29" s="1">
+        <v>8.82763147655901</v>
+      </c>
+      <c r="D29" s="1">
+        <v>57.3364048943948</v>
+      </c>
+      <c r="E29" s="1">
+        <v>21.1056150624299</v>
+      </c>
+      <c r="F29" s="1">
+        <v>7.72567592597971</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.534337220816061</v>
+      </c>
+      <c r="H29" s="1">
+        <v>32.308590056351</v>
+      </c>
+      <c r="I29" s="1">
+        <v>50.8281555175781</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="1">
+        <v>0.746714351426711</v>
+      </c>
+      <c r="C30" s="1">
+        <v>12.2908310904605</v>
+      </c>
+      <c r="D30" s="1">
+        <v>57.2023304146524</v>
+      </c>
+      <c r="E30" s="1">
+        <v>20.8576986408069</v>
+      </c>
+      <c r="F30" s="1">
+        <v>6.53087155070801</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.576914096621975</v>
+      </c>
+      <c r="H30" s="1">
+        <v>32.4290505897646</v>
+      </c>
+      <c r="I30" s="1">
+        <v>52.7273445129395</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="1">
+        <v>0.737497861907407</v>
+      </c>
+      <c r="C31" s="1">
+        <v>11.3961469548127</v>
+      </c>
+      <c r="D31" s="1">
+        <v>61.6359976130311</v>
+      </c>
+      <c r="E31" s="1">
+        <v>20.6561951640592</v>
+      </c>
+      <c r="F31" s="1">
+        <v>10.4697307155381</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.56800190939785</v>
+      </c>
+      <c r="H31" s="1">
+        <v>32.5784276142511</v>
+      </c>
+      <c r="I31" s="1">
+        <v>50.8158187866211</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="1">
+        <v>0.724494012754911</v>
+      </c>
+      <c r="C32" s="1">
+        <v>13.4578097462235</v>
+      </c>
+      <c r="D32" s="1">
+        <v>65.0779360076889</v>
+      </c>
+      <c r="E32" s="1">
+        <v>20.4420346242331</v>
+      </c>
+      <c r="F32" s="1">
+        <v>8.23142049550482</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.591504010677496</v>
+      </c>
+      <c r="H32" s="1">
+        <v>32.7724862985255</v>
+      </c>
+      <c r="I32" s="1">
+        <v>52.5806427001953</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="1">
+        <v>0.729708537860676</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10.6365363318796</v>
+      </c>
+      <c r="D33" s="1">
+        <v>56.1611704394888</v>
+      </c>
+      <c r="E33" s="1">
+        <v>20.3020750568731</v>
+      </c>
+      <c r="F33" s="1">
+        <v>7.09058845670803</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.562675734495456</v>
+      </c>
+      <c r="H33" s="1">
+        <v>32.8588162922078</v>
+      </c>
+      <c r="I33" s="1">
+        <v>51.7041091918945</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="1">
+        <v>0.735747272269197</v>
+      </c>
+      <c r="C34" s="1">
+        <v>9.05969046053857</v>
+      </c>
+      <c r="D34" s="1">
+        <v>52.6160880956264</v>
+      </c>
+      <c r="E34" s="1">
+        <v>19.9973085595611</v>
+      </c>
+      <c r="F34" s="1">
+        <v>9.12603930080319</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.594382570370655</v>
+      </c>
+      <c r="H34" s="1">
+        <v>32.8581388415859</v>
+      </c>
+      <c r="I34" s="1">
+        <v>51.4652938842773</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="1">
+        <v>0.710137153212149</v>
+      </c>
+      <c r="C35" s="1">
+        <v>8.34486404033807</v>
+      </c>
+      <c r="D35" s="1">
+        <v>57.6239351715701</v>
+      </c>
+      <c r="E35" s="1">
+        <v>19.8086994808787</v>
+      </c>
+      <c r="F35" s="1">
+        <v>8.32453453736053</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.587357951207516</v>
+      </c>
+      <c r="H35" s="1">
+        <v>32.7527667828761</v>
+      </c>
+      <c r="I35" s="1">
+        <v>52.1049003601074</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="1">
+        <v>0.716450268746322</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7.5824182650616</v>
+      </c>
+      <c r="D36" s="1">
+        <v>54.3683826123166</v>
+      </c>
+      <c r="E36" s="1">
+        <v>19.6701301042883</v>
+      </c>
+      <c r="F36" s="1">
+        <v>8.49830944303257</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.569739379934805</v>
+      </c>
+      <c r="H36" s="1">
+        <v>32.6051711229933</v>
+      </c>
+      <c r="I36" s="1">
+        <v>51.7553558349609</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="1">
+        <v>0.729638312622476</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10.7489007199253</v>
+      </c>
+      <c r="D37" s="1">
+        <v>64.4715861188404</v>
+      </c>
+      <c r="E37" s="1">
+        <v>19.5451691494287</v>
+      </c>
+      <c r="F37" s="1">
+        <v>8.52629712932041</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.596159362897487</v>
+      </c>
+      <c r="H37" s="1">
+        <v>32.7032106012767</v>
+      </c>
+      <c r="I37" s="1">
+        <v>52.0489501953125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="1">
+        <v>0.719389017699901</v>
+      </c>
+      <c r="C38" s="1">
+        <v>13.4551072650857</v>
+      </c>
+      <c r="D38" s="1">
+        <v>55.5889441740716</v>
+      </c>
+      <c r="E38" s="1">
+        <v>19.3175945131515</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5.67521320759637</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.573818290992337</v>
+      </c>
+      <c r="H38" s="1">
+        <v>32.7639811952847</v>
+      </c>
+      <c r="I38" s="1">
+        <v>52.4260063171387</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="1">
+        <v>0.724596987444138</v>
+      </c>
+      <c r="C39" s="1">
+        <v>8.50197925559837</v>
+      </c>
+      <c r="D39" s="1">
+        <v>55.7186389475508</v>
+      </c>
+      <c r="E39" s="1">
+        <v>19.1949561009359</v>
+      </c>
+      <c r="F39" s="1">
+        <v>8.01390681172734</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.592265559707766</v>
+      </c>
+      <c r="H39" s="1">
+        <v>32.7646219088716</v>
+      </c>
+      <c r="I39" s="1">
+        <v>52.9977226257324</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="1">
+        <v>0.72625370605891</v>
+      </c>
+      <c r="C40" s="1">
+        <v>15.779608964283</v>
+      </c>
+      <c r="D40" s="1">
+        <v>85.6200776751495</v>
+      </c>
+      <c r="E40" s="1">
+        <v>19.0399936006966</v>
+      </c>
+      <c r="F40" s="1">
+        <v>7.24231071752236</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.599637013893754</v>
+      </c>
+      <c r="H40" s="1">
+        <v>32.8668299712085</v>
+      </c>
+      <c r="I40" s="1">
+        <v>51.9571876525879</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="1">
+        <v>0.721458528137269</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10.265330366197</v>
+      </c>
+      <c r="D41" s="1">
+        <v>54.9065029714906</v>
+      </c>
+      <c r="E41" s="1">
+        <v>18.9003612212793</v>
+      </c>
+      <c r="F41" s="1">
+        <v>9.94575482593074</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.596334173488775</v>
+      </c>
+      <c r="H41" s="1">
+        <v>33.004868370566</v>
+      </c>
+      <c r="I41" s="1">
+        <v>52.1850509643555</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="1">
+        <v>0.705141214667424</v>
+      </c>
+      <c r="C42" s="1">
+        <v>11.8559839077664</v>
+      </c>
+      <c r="D42" s="1">
+        <v>59.9795890982834</v>
+      </c>
+      <c r="E42" s="1">
+        <v>18.7515867911886</v>
+      </c>
+      <c r="F42" s="1">
+        <v>7.50630104487844</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.577117540729381</v>
+      </c>
+      <c r="H42" s="1">
+        <v>33.1605388750974</v>
+      </c>
+      <c r="I42" s="1">
+        <v>52.4082412719727</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="1">
+        <v>0.71945404587093</v>
+      </c>
+      <c r="C43" s="1">
+        <v>16.044076959552</v>
+      </c>
+      <c r="D43" s="1">
+        <v>55.0717625521525</v>
+      </c>
+      <c r="E43" s="1">
+        <v>18.5466323181015</v>
+      </c>
+      <c r="F43" s="1">
+        <v>9.89584761228771</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.563246046888507</v>
+      </c>
+      <c r="H43" s="1">
+        <v>33.5983898413678</v>
+      </c>
+      <c r="I43" s="1">
+        <v>53.4230003356934</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="1">
+        <v>0.685662198034941</v>
+      </c>
+      <c r="C44" s="1">
+        <v>12.993978866297</v>
+      </c>
+      <c r="D44" s="1">
+        <v>55.6325964380515</v>
+      </c>
+      <c r="E44" s="1">
+        <v>18.5212671698595</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5.79054422725926</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.535573084417575</v>
+      </c>
+      <c r="H44" s="1">
+        <v>33.8885706764972</v>
+      </c>
+      <c r="I44" s="1">
+        <v>54.1791496276855</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:I44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="1">
+        <v>1.65608374857373</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.190407699853274</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.204732675749536</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.70542820412349</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-0.0624534351909395</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-0.154794316028011</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-0.434874239705488</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-0.923826494333335</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1">
+        <v>1.39483286684248</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.437935965629013</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.21881603058939</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.59239033592792</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.00942720416579</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-0.350112501831877</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-0.282610036002576</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-0.984479885428545</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="1">
+        <v>1.73320828814879</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.503011671578617</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.730655134873931</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.54363769100329</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.635755504435703</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-1.04792358221074</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-0.371124824218637</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-0.776395228822968</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="1">
+        <v>0.789600659140026</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.450853108723463</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.213935766215819</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.43834630299158</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.1782429706335</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-1.36885140869849</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-0.492597378412821</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-0.0185033950330106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="1">
+        <v>1.40212867364044</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.52084494889876</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.0871155456942999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.33629063996817</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.51404666132112</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-0.149403037790558</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-0.627586672972334</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-1.51333236497694</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="1">
+        <v>0.567547533700115</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.59052982807727</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.33780185368748</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.26127587461852</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.906841088628835</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-0.556975422002138</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-0.367942821849273</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-0.74749953997286</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="1">
+        <v>1.09806648876778</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.996001402160681</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.780711509402195</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.17533540755185</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.503897343572489</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.24337201485752</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-0.736337558877302</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-0.367158626395748</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="1">
+        <v>0.38877108918482</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.425424270237392</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1.6028385149261</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.02506076231767</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.857767464401711</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.330676540959785</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-0.907790912853215</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-2.0229179206529</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="1">
+        <v>0.13562202382472</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-1.15793110611594</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1.28604649996176</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.881541817244857</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.716290342540144</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.472514850448853</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-0.757887840813881</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-1.61784908609082</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="1">
+        <v>1.00285113528971</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-1.16511550718321</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1.51672326058725</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.863892005393157</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.751109622805502</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-0.557731741072626</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-0.534788874591786</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-1.78921605224816</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="1">
+        <v>0.409290108759835</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-0.054093771742333</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.184087955616953</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.846754617416944</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.59692187166205</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.35543406485663</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-0.335986156250306</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-0.640872318828094</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="1">
+        <v>1.52176912723343</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-0.749545374330806</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.861556795044255</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.813869988763763</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.87922751435006</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.24079675880152</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-0.535640157693559</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-0.219636553020551</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="1">
+        <v>0.964632998197678</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.329292980875724</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.296941252174436</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.720772844771749</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.43931023607503</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.571049529727439</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-0.652561635991902</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-1.32760523095369</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="1">
+        <v>0.868771119956334</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.442823117838883</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.742415283268549</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.695379658580498</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.18263143598197</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.75167304746018</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-0.611904319330855</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-0.644157058490401</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="1">
+        <v>0.983056616380393</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-0.455209927245111</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.301073437136464</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.643223941020405</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.27878938161502</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.66737660539078</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-0.660515588107275</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-0.105848035776934</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="1">
+        <v>1.08857001489563</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.958314305710042</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.77232217628495</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.572049747687329</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-0.336212968374275</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.27467049093805</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-0.846543276854087</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-0.559683825058522</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="1">
+        <v>1.08810336588345</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.19945390873847</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.71881795834357</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.423713907016412</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.92844733275386</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.86856705825719</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-1.02747049491952</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-1.00419145470807</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="1">
+        <v>1.25387219131073</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-1.18287892815285</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-0.92047190872421</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.362654302485443</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.146340565729848</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.45544900133216</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-1.20286074981748</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-0.665237008353744</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="1">
+        <v>0.859907074621492</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0607752940483438</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-0.431699644982579</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.334179902839773</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.17467045742023</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.97355124355381</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-1.19388467812443</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.953450757912899</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="1">
+        <v>0.0314813320919592</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-1.19634564814682</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.157205504576871</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.257213264576975</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-0.663429944469453</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-0.206650126654568</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-1.22713030659558</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.247090821761242</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="1">
+        <v>-0.328907879411928</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.60096235863848</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-0.606335920250508</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.128209594588968</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-0.280950136727601</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-0.229766634138353</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-1.1534290551189</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.33773398534591</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="1">
+        <v>-0.412997812454555</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-0.16019427072276</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.210677509333017</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.0604512090860384</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-0.718185778184406</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-0.0316916187513598</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-0.976337085134057</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.72811699625097</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="1">
+        <v>-0.119954732480037</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.67660325325585</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.47443147004998</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-0.0104592390356993</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.234836933427084</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-0.323108831423198</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-0.649787916477023</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1.55143307304255</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="1">
+        <v>-0.0613963968062577</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.396041785280685</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.6033413317607</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-0.0699144521356309</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-0.572249908634066</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-0.447414398192634</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-0.684672632339026</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.680557467569708</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="1">
+        <v>-0.753435278541029</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-1.18561376270646</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-1.03808609989879</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-0.229806539726935</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-1.32715353931824</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-0.973357848830614</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-0.845998512479791</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.23547994028571</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="1">
+        <v>-1.02946887639611</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-0.327880924061517</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-0.721736603177567</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-0.310145303754992</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-1.38975457601282</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-1.74759999473799</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-0.589128331284377</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-0.370136498101042</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="1">
+        <v>-0.870468241404386</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-1.05528220065706</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-0.480433878759476</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-0.352138183474774</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1.08181296286023</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-1.15399341216702</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-0.0210942882664161</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-0.575875806749453</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="1">
+        <v>-0.793355457621573</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-1.16145888390379</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-0.441381118919497</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-0.43390737889146</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-0.658474404834652</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-1.55899628175959</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.311465752975978</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-0.513174541737037</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="1">
+        <v>-0.331421918119924</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.157250713842753</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-0.457520159793989</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-0.549797386503768</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-1.06219337592085</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-0.412145822681673</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.495907194217623</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1.04578043730543</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="1">
+        <v>-0.579036532949279</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-0.183425160540686</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.076176754607474</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-0.64399138664836</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.268729243873741</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-0.652204441730401</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.724623711602476</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-0.523301184318447</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="1">
+        <v>-0.928404162831603</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.601610301878867</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.490495605932281</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-0.744102006300827</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-0.487585612102638</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-0.0191519893916021</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.02175392013428</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.925359814623527</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="1">
+        <v>-0.788308237709815</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-0.472668037269819</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-0.582848435751708</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-0.809526939512539</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-0.873067575859652</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-0.795670255421931</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1.15393686840738</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.205854657211276</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="1">
+        <v>-0.626068711316294</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-1.07309596997045</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-1.0095831056228</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-0.95199185354386</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-0.185297981537771</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.0583848764092338</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1.15289959947345</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.00982239618264634</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="1">
+        <v>-1.3141224168799</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-1.34528601563151</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-0.406770036296613</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-1.04015829052759</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-0.456122800323836</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-0.130830221213647</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.991560662775284</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.534845288879748</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="1">
+        <v>-1.14451123595321</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-1.63560845548813</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-0.798652935441754</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-1.10493337078553</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-0.397405049058015</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-0.605403946268379</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.765571656597328</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.247920617767449</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="1">
+        <v>-0.790194942541603</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-0.429882170591514</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.417507027798942</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-1.16334711326827</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-0.387948136993527</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.106244548743415</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.915683416530355</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.48891842841545</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="1">
+        <v>-1.06555740123159</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.60058125700375</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-0.651729427158614</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-1.26972823218679</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-1.35131644328809</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-0.495534423661973</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1.00873145165281</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.798426076119317</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="1">
+        <v>-0.925637595587456</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-1.28546002654208</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-0.636117587721244</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-1.32705628828002</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-0.561082497809845</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.00136109050079529</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1.00971247119544</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1.26772112156183</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="1">
+        <v>-0.881127401026044</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.48569994563067</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.96322915416304</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-1.39949443180755</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-0.821801313118603</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.199918534119005</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1.16620689961705</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.413594870191635</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="1">
+        <v>-1.00995694416375</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-0.61401503549697</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-0.733877398077832</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-1.46476641906701</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.0916801709004641</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.110953245731507</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1.37756244157526</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.600637152602075</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="1">
+        <v>-1.4483456909228</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-0.00832944823336234</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-0.123211262975905</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-1.53431191235409</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-0.732600180663204</v>
+      </c>
+      <c r="G42" s="1">
+        <v>-0.406665853483393</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1.61591513187925</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.783843585549859</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="1">
+        <v>-1.06381032329169</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.58640349221748</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-0.713984491297019</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-1.63011910128797</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.0748167501106271</v>
+      </c>
+      <c r="G43" s="1">
+        <v>-0.780308324387596</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.28632444337294</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1.61681160441461</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="1">
+        <v>-1.97167826680266</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.424993790767254</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-0.646474842736667</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-1.64197619088132</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-1.31234661562736</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-1.52570706755762</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2.73063072307544</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2.23749901705749</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/台风登陆期间数据信息.xlsx
+++ b/data/台风登陆期间数据信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16350" windowHeight="8010" activeTab="3"/>
+    <workbookView windowWidth="23550" windowHeight="12105" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>时间</t>
   </si>
@@ -57,25 +57,21 @@
   <si>
     <t>上升w avg</t>
   </si>
+  <si>
+    <t>地形对降水的影响</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,16 +95,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -120,35 +115,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,6 +133,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -177,29 +151,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,16 +166,60 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,19 +241,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,25 +277,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,13 +295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +325,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,19 +355,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,31 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,37 +379,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +448,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,17 +498,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,22 +513,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,164 +532,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -690,8 +686,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3558,6 +3554,1516 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1.65608374857373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.39483286684248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.73320828814879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.789600659140026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.40212867364044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.567547533700115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.09806648876778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38877108918482</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13562202382472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.00285113528971</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.409290108759835</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.52176912723343</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.964632998197678</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.868771119956334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.983056616380393</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.08857001489563</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.08810336588345</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.25387219131073</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.859907074621492</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0314813320919592</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.328907879411928</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.412997812454555</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.119954732480037</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.0613963968062577</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.753435278541029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.02946887639611</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.870468241404386</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.793355457621573</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.331421918119924</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.579036532949279</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.928404162831603</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.788308237709815</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.626068711316294</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.3141224168799</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.14451123595321</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.790194942541603</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.06555740123159</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.925637595587456</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.881127401026044</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.00995694416375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.4483456909228</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.06381032329169</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.97167826680266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.190407699853274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.437935965629013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.503011671578617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.450853108723463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.52084494889876</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.59052982807727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.996001402160681</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.425424270237392</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.15793110611594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.16511550718321</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.054093771742333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.749545374330806</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.329292980875724</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.442823117838883</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.455209927245111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.958314305710042</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.19945390873847</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.18287892815285</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0607752940483438</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.19634564814682</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.60096235863848</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.16019427072276</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.67660325325585</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.396041785280685</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.18561376270646</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.327880924061517</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.05528220065706</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.16145888390379</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.157250713842753</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.183425160540686</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.601610301878867</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.472668037269819</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.07309596997045</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.34528601563151</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.63560845548813</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.429882170591514</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.60058125700375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.28546002654208</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.48569994563067</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.61401503549697</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.00832944823336234</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.58640349221748</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.424993790767254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.204732675749536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21881603058939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.730655134873931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.213935766215819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0871155456942999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.33780185368748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.780711509402195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.6028385149261</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.28604649996176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.51672326058725</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.184087955616953</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.861556795044255</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.296941252174436</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.742415283268549</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.301073437136464</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.77232217628495</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.71881795834357</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.92047190872421</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.431699644982579</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.157205504576871</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.606335920250508</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.210677509333017</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.47443147004998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6033413317607</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.03808609989879</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.721736603177567</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.480433878759476</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.441381118919497</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.457520159793989</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.076176754607474</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.490495605932281</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.582848435751708</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.0095831056228</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.406770036296613</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.798652935441754</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.417507027798942</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.651729427158614</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.636117587721244</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.96322915416304</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.733877398077832</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.123211262975905</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.713984491297019</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.646474842736667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$2:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1.70542820412349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.59239033592792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.54363769100329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.43834630299158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.33629063996817</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.26127587461852</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.17533540755185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.02506076231767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.881541817244857</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.863892005393157</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.846754617416944</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.813869988763763</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.720772844771749</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.695379658580498</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.643223941020405</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.572049747687329</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.423713907016412</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.362654302485443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.334179902839773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.257213264576975</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.128209594588968</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0604512090860384</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.0104592390356993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.0699144521356309</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.229806539726935</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.310145303754992</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.352138183474774</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.43390737889146</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.549797386503768</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.64399138664836</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.744102006300827</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.809526939512539</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.95199185354386</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.04015829052759</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.10493337078553</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.16334711326827</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.26972823218679</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.32705628828002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.39949443180755</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.46476641906701</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.53431191235409</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.63011910128797</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.64197619088132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$F$2:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>-0.0624534351909395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00942720416579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.635755504435703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1782429706335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.51404666132112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.906841088628835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.503897343572489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.857767464401711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.716290342540144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.751109622805502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.59692187166205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.87922751435006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.43931023607503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.18263143598197</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.27878938161502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.336212968374275</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.92844733275386</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.146340565729848</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.17467045742023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.663429944469453</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.280950136727601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.718185778184406</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.234836933427084</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.572249908634066</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.32715353931824</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.38975457601282</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.08181296286023</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.658474404834652</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.06219337592085</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.268729243873741</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.487585612102638</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.873067575859652</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.185297981537771</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.456122800323836</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.397405049058015</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.387948136993527</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.35131644328809</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.561082497809845</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.821801313118603</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0916801709004641</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.732600180663204</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0748167501106271</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.31234661562736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$G$2:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>-0.154794316028011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.350112501831877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.04792358221074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.36885140869849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.149403037790558</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.556975422002138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.24337201485752</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.330676540959785</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.472514850448853</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.557731741072626</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.35543406485663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.24079675880152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.571049529727439</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.75167304746018</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.66737660539078</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.27467049093805</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.86856705825719</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.45544900133216</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.97355124355381</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.206650126654568</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.229766634138353</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.0316916187513598</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.323108831423198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.447414398192634</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.973357848830614</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.74759999473799</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.15399341216702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.55899628175959</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.412145822681673</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.652204441730401</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.0191519893916021</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.795670255421931</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0583848764092338</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.130830221213647</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.605403946268379</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.106244548743415</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.495534423661973</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.00136109050079529</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.199918534119005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.110953245731507</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.406665853483393</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.780308324387596</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.52570706755762</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$H$2:$H$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>-0.434874239705488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.282610036002576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.371124824218637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.492597378412821</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.627586672972334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.367942821849273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.736337558877302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.907790912853215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.757887840813881</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.534788874591786</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.335986156250306</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.535640157693559</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.652561635991902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.611904319330855</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.660515588107275</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.846543276854087</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.02747049491952</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.20286074981748</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.19388467812443</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.22713030659558</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.1534290551189</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.976337085134057</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.649787916477023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.684672632339026</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.845998512479791</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.589128331284377</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.0210942882664161</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.311465752975978</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.495907194217623</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.724623711602476</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.02175392013428</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.15393686840738</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.15289959947345</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.991560662775284</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.765571656597328</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.915683416530355</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.00873145165281</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.00971247119544</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.16620689961705</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.37756244157526</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.61591513187925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.28632444337294</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.73063072307544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$I$2:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>-0.923826494333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.984479885428545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.776395228822968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.0185033950330106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.51333236497694</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.74749953997286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.367158626395748</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.0229179206529</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.61784908609082</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.78921605224816</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.640872318828094</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.219636553020551</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.32760523095369</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.644157058490401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.105848035776934</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.559683825058522</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.00419145470807</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.665237008353744</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.953450757912899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.247090821761242</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.33773398534591</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.72811699625097</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.55143307304255</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.680557467569708</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23547994028571</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.370136498101042</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.575875806749453</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.513174541737037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.04578043730543</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.523301184318447</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.925359814623527</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.205854657211276</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00982239618264634</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.534845288879748</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.247920617767449</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.48891842841545</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.798426076119317</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.26772112156183</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.413594870191635</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.600637152602075</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.783843585549859</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.61681160441461</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.23749901705749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="396218306"/>
+        <c:axId val="189307041"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="396218306"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="189307041"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="189307041"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396218306"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3678,6 +5184,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4685,6 +6231,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5288,6 +7350,41 @@
       <xdr:xfrm>
         <a:off x="6235700" y="222250"/>
         <a:ext cx="6943725" cy="4676140"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3406775" y="2822575"/>
+        <a:ext cx="8495665" cy="4991100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7993,9 +10090,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:I44"/>
+  <dimension ref="B2:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:I44"/>
     </sheetView>
   </sheetViews>
@@ -8235,7 +10332,7 @@
         <v>-1.61784908609082</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:12">
       <c r="B11" s="1">
         <v>1.00285113528971</v>
       </c>
@@ -8259,6 +10356,9 @@
       </c>
       <c r="I11" s="1">
         <v>-1.78921605224816</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -9122,5 +11222,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/台风登陆期间数据信息.xlsx
+++ b/data/台风登陆期间数据信息.xlsx
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -102,6 +102,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -110,26 +125,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,31 +163,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,16 +185,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,21 +218,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,7 +241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,25 +253,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +277,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,25 +361,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,7 +397,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,85 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +440,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,15 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -537,145 +537,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -7372,10 +7372,10 @@
       <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>262255</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7384,7 +7384,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3406775" y="2822575"/>
-        <a:ext cx="8495665" cy="4991100"/>
+        <a:ext cx="9885680" cy="5905500"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
